--- a/biology/Botanique/Peltandra/Peltandra.xlsx
+++ b/biology/Botanique/Peltandra/Peltandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le genre Peltandra, en américain arrow arum, doit son nom vernaculaire à ses feuilles en forme de pointe de flèche. Ce genre ne comporte que deux espèces de l’est américain.
 Peltandra virginica (L.) Schott, que les Québécois appellent peltandre de Virginie, est une plante de lisières d’étang qui atteint 75 cm. Cette espèce qui a volontiers les pieds dans l’eau, est surtout cultivée pour son feuillage décoratif, car son inflorescence à spathe étroite vert jaunâtre laissant entrevoir un spadice blanc, est peu spectaculaire. L’inflorescence est suivie d’un épi de baies vertes qui deviennent pourpre foncé à maturité.
